--- a/Datalogger V1/Data_Logger_Variables.xlsx
+++ b/Datalogger V1/Data_Logger_Variables.xlsx
@@ -555,19 +555,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,6 +570,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,12 +891,12 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
@@ -1068,109 +1068,109 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>8</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>8</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <v>2</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="30">
         <v>8</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <v>4</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>8</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <v>5</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1326,53 +1326,53 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="33">
         <v>270</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="33">
         <v>270</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="33">
         <v>16</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1723,80 +1723,80 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>2</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>5</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>6</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <v>7</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>8</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>9</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>10</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="28">
         <v>11</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>12</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="28">
         <v>13</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="28">
         <v>14</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <v>15</v>
       </c>
     </row>
@@ -1806,76 +1806,76 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="30" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>0</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>2</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>3</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>4</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>5</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>6</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>7</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>8</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>9</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>10</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <v>11</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <v>12</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>13</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="28">
         <v>14</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="28">
         <v>15</v>
       </c>
     </row>
@@ -1884,79 +1884,79 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="30" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>0</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>2</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>3</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>4</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>5</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>6</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>7</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>8</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <v>9</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="28">
         <v>10</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="28">
         <v>11</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="28">
         <v>12</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="28">
         <v>13</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="28">
         <v>14</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="28">
         <v>15</v>
       </c>
     </row>
@@ -1965,94 +1965,94 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="28" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>0</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>1</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>2</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>3</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>4</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>5</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>6</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <v>7</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>8</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>9</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>10</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="28">
         <v>11</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="28">
         <v>12</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="28">
         <v>13</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="28">
         <v>14</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="28">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
